--- a/CRI - Inventaires/00.C.044/00.C.044.xlsx
+++ b/CRI - Inventaires/00.C.044/00.C.044.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BYTK_Facturation\SUIVI INSTALLATION MOBILIER\CRI - Inventaires\00.C.044\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\photoReport\CRI - Inventaires\00.C.044\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="00.C.044" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,16 @@
     <definedName name="f1_image_2">'00.C.044'!$G$10</definedName>
     <definedName name="f1_level">'00.C.044'!$A$1:$E$7</definedName>
     <definedName name="f1_plan">'00.C.044'!$F$1:$G$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'00.C.044'!$A$1:$Z$60</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'00.C.044'!$22:$22</definedName>
     <definedName name="rngClient" localSheetId="0">'00.C.044'!#REF!</definedName>
     <definedName name="rngContractor" localSheetId="0">'00.C.044'!#REF!</definedName>
     <definedName name="rngExploitant" localSheetId="0">'00.C.044'!#REF!</definedName>
     <definedName name="rngPlanImage" localSheetId="0">'00.C.044'!$A$5:$J$21</definedName>
     <definedName name="rngRepresentantBYTK" localSheetId="0">'00.C.044'!#REF!</definedName>
     <definedName name="rngRepresentantCLIENT" localSheetId="0">'00.C.044'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'00.C.044'!$22:$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'00.C.044'!$A$1:$Z$60</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#\ ###.00"/>
@@ -443,8 +443,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,16 +470,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>547688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ByBat International_4">
+        <xdr:cNvPr id="2" name="Picture 618" descr="ByBat International_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -496,8 +496,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="285748" y="229818"/>
-          <a:ext cx="2000251" cy="1079870"/>
+          <a:off x="285748" y="224103"/>
+          <a:ext cx="1771652" cy="1077965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,13 +528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Arrow 2"/>
+        <xdr:cNvPr id="3" name="Right Arrow 749"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10001250" y="2976562"/>
-          <a:ext cx="1738313" cy="666750"/>
+          <a:off x="10287000" y="2955607"/>
+          <a:ext cx="1776413" cy="661035"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -569,16 +569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,8 +601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="5969000"/>
-          <a:ext cx="8128000" cy="7762875"/>
+          <a:off x="9728200" y="6082030"/>
+          <a:ext cx="8135620" cy="7776210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,16 +613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,8 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="5969000"/>
-          <a:ext cx="8128000" cy="7762875"/>
+          <a:off x="9728200" y="6082030"/>
+          <a:ext cx="8135620" cy="7776210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,16 +662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,101 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9461500" y="5969000"/>
-          <a:ext cx="8128000" cy="7762875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="imagesToDeleteAfter"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9461500" y="5969000"/>
-          <a:ext cx="8128000" cy="7762875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:prstClr val="black"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="imagesToDeleteAfter"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12001500" y="1492250"/>
-          <a:ext cx="5080000" cy="4318000"/>
+          <a:off x="12344400" y="1499870"/>
+          <a:ext cx="5087620" cy="4462780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,23 +714,23 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="imagesToDeleteAfter"/>
+        <xdr:cNvPr id="7" name="imagesToDeleteAfter"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -836,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="1492250"/>
-          <a:ext cx="10160000" cy="4318000"/>
+          <a:off x="685800" y="1499870"/>
+          <a:ext cx="10160000" cy="4462780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,9 +762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -895,14 +802,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -935,9 +842,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -967,7 +874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,13 +1031,13 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="23" width="10" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1165,7 +1072,7 @@
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" s="18" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:33" s="18" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1206,7 +1113,7 @@
       <c r="AF2" s="17"/>
       <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="1:33" s="18" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:33" s="18" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1245,7 +1152,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1280,7 +1187,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -1315,7 +1222,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1350,7 +1257,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1385,7 +1292,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -1420,7 +1327,7 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1455,7 +1362,7 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -1490,7 +1397,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -1525,7 +1432,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1560,7 +1467,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -1595,7 +1502,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -1630,7 +1537,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -1665,7 +1572,7 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1700,7 +1607,7 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1735,7 +1642,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -1770,7 +1677,7 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -1805,7 +1712,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -1840,7 +1747,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
@@ -1875,7 +1782,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1910,7 +1817,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1942,7 +1849,7 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
     </row>
-    <row r="24" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1974,7 +1881,7 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
     </row>
-    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2006,7 +1913,7 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2038,7 +1945,7 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2070,7 +1977,7 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
     </row>
-    <row r="28" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2102,7 +2009,7 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
     </row>
-    <row r="29" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2134,7 +2041,7 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
     </row>
-    <row r="30" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2166,7 +2073,7 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
     </row>
-    <row r="31" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2198,7 +2105,7 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
     </row>
-    <row r="32" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2230,7 +2137,7 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2262,7 +2169,7 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
     </row>
-    <row r="34" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2294,7 +2201,7 @@
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
     </row>
-    <row r="35" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2326,7 +2233,7 @@
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
     </row>
-    <row r="36" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2358,7 +2265,7 @@
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
     </row>
-    <row r="37" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2390,7 +2297,7 @@
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
     </row>
-    <row r="38" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2422,7 +2329,7 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2454,7 +2361,7 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
     </row>
-    <row r="40" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2486,7 +2393,7 @@
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
     </row>
-    <row r="41" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2518,7 +2425,7 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
     </row>
-    <row r="42" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2550,7 +2457,7 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
     </row>
-    <row r="43" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2582,7 +2489,7 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
     </row>
-    <row r="44" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2614,7 +2521,7 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2646,7 +2553,7 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
     </row>
-    <row r="46" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2678,7 +2585,7 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2710,7 +2617,7 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
     </row>
-    <row r="48" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2742,7 +2649,7 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
     </row>
-    <row r="49" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2774,7 +2681,7 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
     </row>
-    <row r="50" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2806,7 +2713,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2838,7 +2745,7 @@
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
     </row>
-    <row r="52" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2870,7 +2777,7 @@
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
     </row>
-    <row r="53" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2902,7 +2809,7 @@
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
     </row>
-    <row r="54" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2934,7 +2841,7 @@
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
     </row>
-    <row r="55" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2966,7 +2873,7 @@
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
     </row>
-    <row r="56" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2998,7 +2905,7 @@
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
     </row>
-    <row r="57" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3030,7 +2937,7 @@
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
     </row>
-    <row r="58" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3062,7 +2969,7 @@
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
     </row>
-    <row r="59" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3094,7 +3001,7 @@
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
     </row>
-    <row r="60" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3126,7 +3033,7 @@
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
     </row>
-    <row r="61" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3158,7 +3065,7 @@
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
     </row>
-    <row r="62" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -3190,7 +3097,7 @@
       <c r="AC62" s="37"/>
       <c r="AD62" s="37"/>
     </row>
-    <row r="63" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -3222,7 +3129,7 @@
       <c r="AC63" s="37"/>
       <c r="AD63" s="37"/>
     </row>
-    <row r="64" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -3254,7 +3161,7 @@
       <c r="AC64" s="37"/>
       <c r="AD64" s="37"/>
     </row>
-    <row r="65" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -3293,7 +3200,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.62992125984252001" right="0.23622047244094499" top="0.183070866" bottom="0.261811024" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="26" max="64" man="1"/>
   </colBreaks>
